--- a/admin/src/assets/template/Employee_Detail.xlsx
+++ b/admin/src/assets/template/Employee_Detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prath\OneDrive\Desktop\SmartTicket-main\admin\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537017BD-C5CC-4CAA-A287-7D03B01B4A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD8DEB-CD18-463B-826A-D7E6EE42009B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BAC6E9B-092E-4812-BA41-4C1DE36B7A5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3BAC6E9B-092E-4812-BA41-4C1DE36B7A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Employee Id</t>
   </si>
   <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
     <t>Employee Type</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Pincode</t>
+  </si>
+  <si>
+    <t>Date of birth (YYYY-MM-DD)</t>
   </si>
 </sst>
 </file>
@@ -107,9 +107,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,14 +427,14 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" customWidth="1"/>
     <col min="6" max="6" width="32.33203125" customWidth="1"/>
@@ -452,28 +452,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
